--- a/Examples/SSP/SSP_0.xlsx
+++ b/Examples/SSP/SSP_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alufmedinacom-my.sharepoint.com/personal/michelle_aluf-medina_com/Documents/BIU/BIU_Research_Work/Scripts/bionetverification/bionetverification/Examples/SSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_F844F17FDE9BA5718766271885320813B2B48BEF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_F844F17FDE9BA5718766271885320813B2B48BEF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5B5838BA-1C65-4749-B60D-440420BA1B89}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14800" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bulk_OutSpec" sheetId="1" r:id="rId1"/>
@@ -2221,12 +2221,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -2293,7 +2299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2308,6 +2314,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2612,11 +2634,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="8.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2637,13 +2663,13 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -2652,47 +2678,47 @@
       <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="3" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2921,7 +2947,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" activeCellId="6" sqref="A2:A3 C2:C3 G2:G3 H2:I2 J2:K2 I3 K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2944,13 +2972,13 @@
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -2962,36 +2990,36 @@
       <c r="F2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="10" t="s">
         <v>50</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3368,7 +3396,7 @@
   <dimension ref="A1:AMK162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S1"/>
+      <selection activeCell="S3" activeCellId="9" sqref="A2:A3 C2:C3 F2:F3 G2:G3 J3 H2:M2 N2:S2 M3 P3 S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3400,13 +3428,13 @@
       <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -3415,44 +3443,44 @@
       <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="3" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="5"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="13"/>
     </row>
     <row r="3" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -3461,7 +3489,7 @@
       <c r="L3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -3470,7 +3498,7 @@
       <c r="O3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -3479,7 +3507,7 @@
       <c r="R3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
